--- a/Static Evaluation/Static Evaluation Results.xlsx
+++ b/Static Evaluation/Static Evaluation Results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanchit/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit\workspace\CSResearch\Native-2-Native\Static Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="39">
   <si>
     <t>Experiments</t>
   </si>
@@ -96,12 +96,57 @@
   </si>
   <si>
     <t>1 or 2</t>
+  </si>
+  <si>
+    <t>BLE.write20</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>WiFi.Initialization</t>
+  </si>
+  <si>
+    <t>WiFi.Reset</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>String.toString</t>
+  </si>
+  <si>
+    <t>String.indexOf2</t>
+  </si>
+  <si>
+    <t>String.valueOf(String)</t>
+  </si>
+  <si>
+    <t>String.valueOf(Boolean)</t>
+  </si>
+  <si>
+    <t>String.valueOf(Integer)</t>
+  </si>
+  <si>
+    <t>String.valueOf(Double)</t>
+  </si>
+  <si>
+    <t>String.charAt</t>
+  </si>
+  <si>
+    <t>String.equalsIgnoreCase</t>
+  </si>
+  <si>
+    <t>String.compareToIgnoreCase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -153,6 +198,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,20 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -480,7 +528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -503,7 +551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -526,210 +574,486 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <f>COUNTIF(B2:B12,"YES")/COUNTA(B2:B12)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:F13" si="0">COUNTIF(C2:C12,"YES")/COUNTA(C2:C12)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>COUNTIF(B2:B24,"YES")/COUNTA(B2:B24)</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="C25" s="1">
+        <f>COUNTIF(C2:C24,"YES")/COUNTA(C2:C24)</f>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="D25" s="1">
+        <f>COUNTIF(D2:D24,"YES")/COUNTA(D2:D24)</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="E25" s="1">
+        <f>COUNTIF(E2:E24,"YES")/COUNTA(E2:E24)</f>
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F25" s="1">
+        <f>COUNTIF(F2:F24,"YES")/COUNTA(F2:F24)</f>
+        <v>0.56521739130434778</v>
       </c>
     </row>
   </sheetData>
